--- a/data/pca/factorExposure/factorExposure_2016-04-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-04-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01081021362097791</v>
+        <v>0.01546423284720177</v>
       </c>
       <c r="C2">
-        <v>0.05190203765901302</v>
+        <v>0.03844853354453016</v>
       </c>
       <c r="D2">
-        <v>0.04365804585420928</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06382680964487765</v>
+      </c>
+      <c r="E2">
+        <v>-0.0954346586587899</v>
+      </c>
+      <c r="F2">
+        <v>0.08691838618206359</v>
+      </c>
+      <c r="G2">
+        <v>0.02405064018949375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04190017683051649</v>
+        <v>0.02570110730078015</v>
       </c>
       <c r="C3">
-        <v>0.1207682787526395</v>
+        <v>0.06653311739611822</v>
       </c>
       <c r="D3">
-        <v>0.0855317096327628</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07265207709711706</v>
+      </c>
+      <c r="E3">
+        <v>-0.07007245255482457</v>
+      </c>
+      <c r="F3">
+        <v>-0.02130036069225935</v>
+      </c>
+      <c r="G3">
+        <v>0.04980257296811567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06363957985635679</v>
+        <v>0.06028781851562616</v>
       </c>
       <c r="C4">
-        <v>0.06216347373151455</v>
+        <v>0.06292381530350376</v>
       </c>
       <c r="D4">
-        <v>0.02611884797501664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05492714909697159</v>
+      </c>
+      <c r="E4">
+        <v>-0.08736254171589433</v>
+      </c>
+      <c r="F4">
+        <v>0.05225614537732496</v>
+      </c>
+      <c r="G4">
+        <v>0.08681925336345558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04030216354128329</v>
+        <v>0.03666567858143687</v>
       </c>
       <c r="C6">
-        <v>0.03730328324384968</v>
+        <v>0.02803602216383901</v>
       </c>
       <c r="D6">
-        <v>0.03204364343809904</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06309883000039969</v>
+      </c>
+      <c r="E6">
+        <v>-0.08819158397635733</v>
+      </c>
+      <c r="F6">
+        <v>0.03687938476265724</v>
+      </c>
+      <c r="G6">
+        <v>0.06125279449639522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02680766436300395</v>
+        <v>0.02091298191089817</v>
       </c>
       <c r="C7">
-        <v>0.04065929359618502</v>
+        <v>0.03667391394481845</v>
       </c>
       <c r="D7">
-        <v>-0.005576114393335004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03980810869146573</v>
+      </c>
+      <c r="E7">
+        <v>-0.06773875909483985</v>
+      </c>
+      <c r="F7">
+        <v>0.07638107761737974</v>
+      </c>
+      <c r="G7">
+        <v>0.09508583587063808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007242969117266114</v>
+        <v>0.00616460833843157</v>
       </c>
       <c r="C8">
-        <v>0.04066425814486589</v>
+        <v>0.0346621120246749</v>
       </c>
       <c r="D8">
-        <v>0.0249465410147427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03509985077180197</v>
+      </c>
+      <c r="E8">
+        <v>-0.06098330252345745</v>
+      </c>
+      <c r="F8">
+        <v>0.02169511019032142</v>
+      </c>
+      <c r="G8">
+        <v>0.03574619021527569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03939560186003432</v>
+        <v>0.04050369106841278</v>
       </c>
       <c r="C9">
-        <v>0.04771050859986081</v>
+        <v>0.05072128015781301</v>
       </c>
       <c r="D9">
-        <v>0.01221940335079334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04075791744831069</v>
+      </c>
+      <c r="E9">
+        <v>-0.0700297485877409</v>
+      </c>
+      <c r="F9">
+        <v>0.06401774268184549</v>
+      </c>
+      <c r="G9">
+        <v>0.07635811564166735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07304908845286569</v>
+        <v>0.09959449828231334</v>
       </c>
       <c r="C10">
-        <v>-0.1923664588453533</v>
+        <v>-0.2012099717250675</v>
       </c>
       <c r="D10">
-        <v>-0.004159568398166805</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01169069598038064</v>
+      </c>
+      <c r="E10">
+        <v>-0.03262449486514435</v>
+      </c>
+      <c r="F10">
+        <v>0.02100676191439937</v>
+      </c>
+      <c r="G10">
+        <v>0.03526729093460858</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04316827714771961</v>
+        <v>0.03776341723638917</v>
       </c>
       <c r="C11">
-        <v>0.05045642931467956</v>
+        <v>0.04741300408785332</v>
       </c>
       <c r="D11">
-        <v>0.01281472274910781</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03150546521449651</v>
+      </c>
+      <c r="E11">
+        <v>-0.02818945351633891</v>
+      </c>
+      <c r="F11">
+        <v>0.04450567968049112</v>
+      </c>
+      <c r="G11">
+        <v>0.06583730040498846</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04594925442528047</v>
+        <v>0.03985892307099679</v>
       </c>
       <c r="C12">
-        <v>0.04555677502816091</v>
+        <v>0.04571295625650069</v>
       </c>
       <c r="D12">
-        <v>0.002660083793836401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02707779897137255</v>
+      </c>
+      <c r="E12">
+        <v>-0.03504706969741669</v>
+      </c>
+      <c r="F12">
+        <v>0.04625761560161857</v>
+      </c>
+      <c r="G12">
+        <v>0.06304484787865328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01604229854175071</v>
+        <v>0.01386858256666466</v>
       </c>
       <c r="C13">
-        <v>0.05367998061153421</v>
+        <v>0.04218956760407056</v>
       </c>
       <c r="D13">
-        <v>0.01167673109031813</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.048866370043514</v>
+      </c>
+      <c r="E13">
+        <v>-0.101747274763697</v>
+      </c>
+      <c r="F13">
+        <v>0.06830208837839263</v>
+      </c>
+      <c r="G13">
+        <v>0.0916412959787553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01047562459495349</v>
+        <v>0.006907084587847239</v>
       </c>
       <c r="C14">
-        <v>0.03637194753811296</v>
+        <v>0.0309825617700588</v>
       </c>
       <c r="D14">
-        <v>-0.006874587647563764</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02658709942890597</v>
+      </c>
+      <c r="E14">
+        <v>-0.05166011607420477</v>
+      </c>
+      <c r="F14">
+        <v>0.08496781041335452</v>
+      </c>
+      <c r="G14">
+        <v>0.07803550532175975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-9.165072097342691e-06</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005618307885050063</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.008788088792564942</v>
+      </c>
+      <c r="E15">
+        <v>-0.004801410853463657</v>
+      </c>
+      <c r="F15">
+        <v>0.007023583115666238</v>
+      </c>
+      <c r="G15">
+        <v>0.006612896430963099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04088491893629582</v>
+        <v>0.03586522724992689</v>
       </c>
       <c r="C16">
-        <v>0.04768392498619594</v>
+        <v>0.04453914502678553</v>
       </c>
       <c r="D16">
-        <v>0.004980799741711531</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02592897871178599</v>
+      </c>
+      <c r="E16">
+        <v>-0.04153408100356395</v>
+      </c>
+      <c r="F16">
+        <v>0.05558331610448588</v>
+      </c>
+      <c r="G16">
+        <v>0.05348631162664307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02756934392331346</v>
+        <v>0.01871515356202495</v>
       </c>
       <c r="C19">
-        <v>0.06068064813867098</v>
+        <v>0.04502099381393877</v>
       </c>
       <c r="D19">
-        <v>0.0920818631901372</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.0923063065284299</v>
+      </c>
+      <c r="E19">
+        <v>-0.1126418742303061</v>
+      </c>
+      <c r="F19">
+        <v>0.06561517293439631</v>
+      </c>
+      <c r="G19">
+        <v>0.03715709622830927</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01949515780710377</v>
+        <v>0.01547484152248371</v>
       </c>
       <c r="C20">
-        <v>0.04945361578217893</v>
+        <v>0.03980711469347811</v>
       </c>
       <c r="D20">
-        <v>0.01017734562247834</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03559085387821685</v>
+      </c>
+      <c r="E20">
+        <v>-0.07976203726731422</v>
+      </c>
+      <c r="F20">
+        <v>0.06097406112597169</v>
+      </c>
+      <c r="G20">
+        <v>0.0621680578572326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01390294778808036</v>
+        <v>0.01201718563215651</v>
       </c>
       <c r="C21">
-        <v>0.05467272834978525</v>
+        <v>0.04405487325950734</v>
       </c>
       <c r="D21">
-        <v>0.03034248084029369</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.05708100749508575</v>
+      </c>
+      <c r="E21">
+        <v>-0.1282482501708735</v>
+      </c>
+      <c r="F21">
+        <v>0.09827138298469441</v>
+      </c>
+      <c r="G21">
+        <v>0.0896721299474956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001864877833110099</v>
+        <v>0.003940324894074879</v>
       </c>
       <c r="C22">
-        <v>0.001278977031616691</v>
+        <v>0.02914228737140385</v>
       </c>
       <c r="D22">
-        <v>0.006728374866812792</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.05051082811168884</v>
+      </c>
+      <c r="E22">
+        <v>-0.05589732117021855</v>
+      </c>
+      <c r="F22">
+        <v>-0.01555431635740092</v>
+      </c>
+      <c r="G22">
+        <v>0.0635799618085361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001870894855491028</v>
+        <v>0.004044100678698934</v>
       </c>
       <c r="C23">
-        <v>0.001298521580964539</v>
+        <v>0.02917517274820515</v>
       </c>
       <c r="D23">
-        <v>0.006718547549737724</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04983997733794263</v>
+      </c>
+      <c r="E23">
+        <v>-0.05619220335337325</v>
+      </c>
+      <c r="F23">
+        <v>-0.01568558619803724</v>
+      </c>
+      <c r="G23">
+        <v>0.06370239451526211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03753912741733288</v>
+        <v>0.03625042340187423</v>
       </c>
       <c r="C24">
-        <v>0.04977770056723039</v>
+        <v>0.05243786155309931</v>
       </c>
       <c r="D24">
-        <v>0.00749580021107427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02553851957732369</v>
+      </c>
+      <c r="E24">
+        <v>-0.04265825725537772</v>
+      </c>
+      <c r="F24">
+        <v>0.05943899901166054</v>
+      </c>
+      <c r="G24">
+        <v>0.06477492771810522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04897993035408488</v>
+        <v>0.04394346458481583</v>
       </c>
       <c r="C25">
-        <v>0.05971292092562545</v>
+        <v>0.05587981483695771</v>
       </c>
       <c r="D25">
-        <v>-0.004084114784359541</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02305268827033901</v>
+      </c>
+      <c r="E25">
+        <v>-0.03544092920018897</v>
+      </c>
+      <c r="F25">
+        <v>0.04958143610300515</v>
+      </c>
+      <c r="G25">
+        <v>0.07674856011911234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01810530017080692</v>
+        <v>0.01677954800379616</v>
       </c>
       <c r="C26">
-        <v>0.0186613200303172</v>
+        <v>0.01704029329249239</v>
       </c>
       <c r="D26">
-        <v>0.00239011059255526</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02592723187386388</v>
+      </c>
+      <c r="E26">
+        <v>-0.05251831805030097</v>
+      </c>
+      <c r="F26">
+        <v>0.06350776799237001</v>
+      </c>
+      <c r="G26">
+        <v>0.04545960497996222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08839295367995577</v>
+        <v>0.1366526179634809</v>
       </c>
       <c r="C28">
-        <v>-0.2520590243449023</v>
+        <v>-0.2558458651324164</v>
       </c>
       <c r="D28">
-        <v>-0.005049394529916902</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02674906076277929</v>
+      </c>
+      <c r="E28">
+        <v>-0.05707926558151074</v>
+      </c>
+      <c r="F28">
+        <v>0.03782626104356503</v>
+      </c>
+      <c r="G28">
+        <v>0.05148888145841161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.0081659661555471</v>
+        <v>0.006996159550792034</v>
       </c>
       <c r="C29">
-        <v>0.03168573698184404</v>
+        <v>0.02867693867591837</v>
       </c>
       <c r="D29">
-        <v>-0.01310094393254409</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01780159301440179</v>
+      </c>
+      <c r="E29">
+        <v>-0.05168641235166548</v>
+      </c>
+      <c r="F29">
+        <v>0.07609964015523281</v>
+      </c>
+      <c r="G29">
+        <v>0.08282999930548975</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04780060836031213</v>
+        <v>0.04424405129626036</v>
       </c>
       <c r="C30">
-        <v>0.05044966672117737</v>
+        <v>0.05749481141406055</v>
       </c>
       <c r="D30">
-        <v>0.07818696679021167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1032761149130582</v>
+      </c>
+      <c r="E30">
+        <v>-0.07786356307374823</v>
+      </c>
+      <c r="F30">
+        <v>0.07018504732498262</v>
+      </c>
+      <c r="G30">
+        <v>0.06164589922731129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06171795096894998</v>
+        <v>0.05948546023597299</v>
       </c>
       <c r="C31">
-        <v>0.04633667543370478</v>
+        <v>0.06217134559440138</v>
       </c>
       <c r="D31">
-        <v>-0.04435261263904926</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0172631551076419</v>
+      </c>
+      <c r="E31">
+        <v>-0.07042733199702714</v>
+      </c>
+      <c r="F31">
+        <v>0.03012261838989171</v>
+      </c>
+      <c r="G31">
+        <v>0.07938746379635503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.003802552947726026</v>
+        <v>0.007862217165818088</v>
       </c>
       <c r="C32">
-        <v>0.04269205038345354</v>
+        <v>0.03575442939323709</v>
       </c>
       <c r="D32">
-        <v>0.0557043740343328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05500793017258581</v>
+      </c>
+      <c r="E32">
+        <v>-0.05832612165640864</v>
+      </c>
+      <c r="F32">
+        <v>0.06960148051459766</v>
+      </c>
+      <c r="G32">
+        <v>0.05991682412403995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0359896030618974</v>
+        <v>0.02881488303093352</v>
       </c>
       <c r="C33">
-        <v>0.0570193911376044</v>
+        <v>0.05228217197152757</v>
       </c>
       <c r="D33">
-        <v>0.03861555136176736</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07257856917710553</v>
+      </c>
+      <c r="E33">
+        <v>-0.09028473580656222</v>
+      </c>
+      <c r="F33">
+        <v>0.0757548013175704</v>
+      </c>
+      <c r="G33">
+        <v>0.09314899309675732</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04636091092543568</v>
+        <v>0.04153277196929117</v>
       </c>
       <c r="C34">
-        <v>0.0640067221227486</v>
+        <v>0.06271691802994424</v>
       </c>
       <c r="D34">
-        <v>0.0182400041590364</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03744346867342959</v>
+      </c>
+      <c r="E34">
+        <v>-0.01706333641889057</v>
+      </c>
+      <c r="F34">
+        <v>0.058266764940378</v>
+      </c>
+      <c r="G34">
+        <v>0.06720973879611196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01789868516971149</v>
+        <v>0.01508394725047849</v>
       </c>
       <c r="C36">
-        <v>0.0165932269880511</v>
+        <v>0.01369271842412821</v>
       </c>
       <c r="D36">
-        <v>-0.003143567136440969</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0250691132406704</v>
+      </c>
+      <c r="E36">
+        <v>-0.0617539546931872</v>
+      </c>
+      <c r="F36">
+        <v>0.055621820808466</v>
+      </c>
+      <c r="G36">
+        <v>0.06267911905842651</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0314319095849443</v>
+        <v>0.02453700132854686</v>
       </c>
       <c r="C38">
-        <v>0.03225514510032374</v>
+        <v>0.02445142027672512</v>
       </c>
       <c r="D38">
-        <v>-0.01322143764826789</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02166179495831425</v>
+      </c>
+      <c r="E38">
+        <v>-0.05011051527170947</v>
+      </c>
+      <c r="F38">
+        <v>0.04462816082499706</v>
+      </c>
+      <c r="G38">
+        <v>0.04382130473965351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04865105507103797</v>
+        <v>0.04215039440112257</v>
       </c>
       <c r="C39">
-        <v>0.06177422344165168</v>
+        <v>0.06269573751483989</v>
       </c>
       <c r="D39">
-        <v>0.0202149320400923</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05125240197357291</v>
+      </c>
+      <c r="E39">
+        <v>-0.04904071166831637</v>
+      </c>
+      <c r="F39">
+        <v>0.07823089477548233</v>
+      </c>
+      <c r="G39">
+        <v>0.05775538885388956</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01213265709748751</v>
+        <v>0.014907164954436</v>
       </c>
       <c r="C40">
-        <v>0.05363921219764103</v>
+        <v>0.0377745775149612</v>
       </c>
       <c r="D40">
-        <v>0.01749853373021933</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03214103782863793</v>
+      </c>
+      <c r="E40">
+        <v>-0.08925744404428576</v>
+      </c>
+      <c r="F40">
+        <v>0.04275761497552147</v>
+      </c>
+      <c r="G40">
+        <v>0.09670766151343904</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02338752329640425</v>
+        <v>0.01968005112946877</v>
       </c>
       <c r="C41">
-        <v>0.01348919197141293</v>
+        <v>0.01007422382736002</v>
       </c>
       <c r="D41">
-        <v>0.001557301893831081</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01725522328953324</v>
+      </c>
+      <c r="E41">
+        <v>-0.06315414358091091</v>
+      </c>
+      <c r="F41">
+        <v>0.04888056602059247</v>
+      </c>
+      <c r="G41">
+        <v>0.0504205344755729</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.0450630783663088</v>
+        <v>0.03178247028976094</v>
       </c>
       <c r="C43">
-        <v>0.03470808909292005</v>
+        <v>0.0256843123514931</v>
       </c>
       <c r="D43">
-        <v>0.02073706955544823</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04481557078257583</v>
+      </c>
+      <c r="E43">
+        <v>-0.07780526595597852</v>
+      </c>
+      <c r="F43">
+        <v>0.0452724027442551</v>
+      </c>
+      <c r="G43">
+        <v>0.07689844786781451</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01665118164706545</v>
+        <v>0.01808573023444231</v>
       </c>
       <c r="C44">
-        <v>0.0705807133142244</v>
+        <v>0.04802116956353311</v>
       </c>
       <c r="D44">
-        <v>0.007877388302963761</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03310311485168219</v>
+      </c>
+      <c r="E44">
+        <v>-0.0892454975274956</v>
+      </c>
+      <c r="F44">
+        <v>0.06740052916851369</v>
+      </c>
+      <c r="G44">
+        <v>0.04627782205963549</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01185529183785627</v>
+        <v>0.01208342465033971</v>
       </c>
       <c r="C46">
-        <v>0.02750905305678621</v>
+        <v>0.02928794748449597</v>
       </c>
       <c r="D46">
-        <v>-0.01365271095816871</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01461596341835275</v>
+      </c>
+      <c r="E46">
+        <v>-0.0614857383305757</v>
+      </c>
+      <c r="F46">
+        <v>0.08709355936655552</v>
+      </c>
+      <c r="G46">
+        <v>0.08114603174295151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09091898984271464</v>
+        <v>0.09295758066523427</v>
       </c>
       <c r="C47">
-        <v>0.06758039295819311</v>
+        <v>0.07927904675080681</v>
       </c>
       <c r="D47">
-        <v>-0.0445347033853057</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02453922233823071</v>
+      </c>
+      <c r="E47">
+        <v>-0.0648982104788412</v>
+      </c>
+      <c r="F47">
+        <v>0.02997384175206462</v>
+      </c>
+      <c r="G47">
+        <v>0.07564174681116184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.0203711832832251</v>
+        <v>0.01844747117273934</v>
       </c>
       <c r="C48">
-        <v>0.01435285807162421</v>
+        <v>0.01641224603277785</v>
       </c>
       <c r="D48">
-        <v>-0.01664990130245997</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0123162463492704</v>
+      </c>
+      <c r="E48">
+        <v>-0.07276545264223684</v>
+      </c>
+      <c r="F48">
+        <v>0.07044943424831063</v>
+      </c>
+      <c r="G48">
+        <v>0.06702459942034876</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08492144401973548</v>
+        <v>0.07228592730908374</v>
       </c>
       <c r="C50">
-        <v>0.08158854889038508</v>
+        <v>0.07489179575927093</v>
       </c>
       <c r="D50">
-        <v>-0.04426153660432002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.008883234912733093</v>
+      </c>
+      <c r="E50">
+        <v>-0.07704113736152821</v>
+      </c>
+      <c r="F50">
+        <v>0.00418233403324101</v>
+      </c>
+      <c r="G50">
+        <v>0.09310257761598585</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01856409453681026</v>
+        <v>0.01192006207198628</v>
       </c>
       <c r="C51">
-        <v>0.04946843248287528</v>
+        <v>0.03186179607077409</v>
       </c>
       <c r="D51">
-        <v>0.03941285169725454</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05612480797549835</v>
+      </c>
+      <c r="E51">
+        <v>-0.05121940701633827</v>
+      </c>
+      <c r="F51">
+        <v>0.07383641499053809</v>
+      </c>
+      <c r="G51">
+        <v>0.05500731813314051</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.0836755719655156</v>
+        <v>0.09728381301470367</v>
       </c>
       <c r="C53">
-        <v>0.07723334957980338</v>
+        <v>0.0849332336978587</v>
       </c>
       <c r="D53">
-        <v>-0.06524153435368639</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.06249142318483288</v>
+      </c>
+      <c r="E53">
+        <v>-0.06640068062450841</v>
+      </c>
+      <c r="F53">
+        <v>0.03205186607122399</v>
+      </c>
+      <c r="G53">
+        <v>0.06786410634723813</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03804186678965537</v>
+        <v>0.03074908184578895</v>
       </c>
       <c r="C54">
-        <v>0.03502931585180231</v>
+        <v>0.03215262630702689</v>
       </c>
       <c r="D54">
-        <v>-0.004008930465493003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02588649961108812</v>
+      </c>
+      <c r="E54">
+        <v>-0.05751475836932671</v>
+      </c>
+      <c r="F54">
+        <v>0.07793688016757798</v>
+      </c>
+      <c r="G54">
+        <v>0.08217830649484642</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08002959046639678</v>
+        <v>0.09014867345553604</v>
       </c>
       <c r="C55">
-        <v>0.05369051534545483</v>
+        <v>0.06782106056265873</v>
       </c>
       <c r="D55">
-        <v>-0.07014988910762932</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06122943649325393</v>
+      </c>
+      <c r="E55">
+        <v>-0.04393029496199041</v>
+      </c>
+      <c r="F55">
+        <v>0.008288455006028731</v>
+      </c>
+      <c r="G55">
+        <v>0.05284288304073153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.153240185889215</v>
+        <v>0.1554395718241711</v>
       </c>
       <c r="C56">
-        <v>0.08260868248314893</v>
+        <v>0.1008043104614591</v>
       </c>
       <c r="D56">
-        <v>-0.06062020933155081</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05526887641888212</v>
+      </c>
+      <c r="E56">
+        <v>-0.03867798853916016</v>
+      </c>
+      <c r="F56">
+        <v>-0.01329277177495332</v>
+      </c>
+      <c r="G56">
+        <v>0.02363247943308958</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04991576175036703</v>
+        <v>0.0305473813599787</v>
       </c>
       <c r="C58">
-        <v>0.01270743290559107</v>
+        <v>0.0207051199976671</v>
       </c>
       <c r="D58">
-        <v>0.5882387512238794</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3821929491967185</v>
+      </c>
+      <c r="E58">
+        <v>-0.6237246924989501</v>
+      </c>
+      <c r="F58">
+        <v>-0.4467262068165443</v>
+      </c>
+      <c r="G58">
+        <v>-0.4282257093125289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1236298205284875</v>
+        <v>0.1397528362765642</v>
       </c>
       <c r="C59">
-        <v>-0.2029185045695726</v>
+        <v>-0.1908377342739016</v>
       </c>
       <c r="D59">
-        <v>0.02735128655369339</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03089985200162432</v>
+      </c>
+      <c r="E59">
+        <v>-0.03128001636282034</v>
+      </c>
+      <c r="F59">
+        <v>0.03156003317169277</v>
+      </c>
+      <c r="G59">
+        <v>-0.01016324494152955</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3048781811096871</v>
+        <v>0.2734186713754693</v>
       </c>
       <c r="C60">
-        <v>0.1123177256974975</v>
+        <v>0.1068748949745884</v>
       </c>
       <c r="D60">
-        <v>0.1785218159919716</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2516875060467951</v>
+      </c>
+      <c r="E60">
+        <v>0.2421119687621768</v>
+      </c>
+      <c r="F60">
+        <v>-0.08510983546805474</v>
+      </c>
+      <c r="G60">
+        <v>0.04252435088472874</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0478139499923546</v>
+        <v>0.04385859561267188</v>
       </c>
       <c r="C61">
-        <v>0.0600182918241571</v>
+        <v>0.05814624184781456</v>
       </c>
       <c r="D61">
-        <v>0.01399530834369915</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04246976808371093</v>
+      </c>
+      <c r="E61">
+        <v>-0.05014173365699881</v>
+      </c>
+      <c r="F61">
+        <v>0.06230720530638233</v>
+      </c>
+      <c r="G61">
+        <v>0.07258656770802602</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01900238817342152</v>
+        <v>0.0171583804003376</v>
       </c>
       <c r="C63">
-        <v>0.03409733018163034</v>
+        <v>0.03115908486682005</v>
       </c>
       <c r="D63">
-        <v>-0.02119130473319265</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01704829635432843</v>
+      </c>
+      <c r="E63">
+        <v>-0.06307175307927443</v>
+      </c>
+      <c r="F63">
+        <v>0.04635366872837664</v>
+      </c>
+      <c r="G63">
+        <v>0.07211231351556202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05144459665387611</v>
+        <v>0.05721795090517343</v>
       </c>
       <c r="C64">
-        <v>0.04908021541254621</v>
+        <v>0.05903401026600492</v>
       </c>
       <c r="D64">
-        <v>0.01261569982679098</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.008532933878803231</v>
+      </c>
+      <c r="E64">
+        <v>-0.04373110322255046</v>
+      </c>
+      <c r="F64">
+        <v>0.05800325503643946</v>
+      </c>
+      <c r="G64">
+        <v>0.04943387302396609</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07961332754299441</v>
+        <v>0.06421060046616293</v>
       </c>
       <c r="C65">
-        <v>0.02551357362138642</v>
+        <v>0.02643578241837012</v>
       </c>
       <c r="D65">
-        <v>0.0576489781372259</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08714228941974868</v>
+      </c>
+      <c r="E65">
+        <v>-0.05588828863392126</v>
+      </c>
+      <c r="F65">
+        <v>0.007577698563296252</v>
+      </c>
+      <c r="G65">
+        <v>0.02152634942803598</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06320712826884391</v>
+        <v>0.05400557065581742</v>
       </c>
       <c r="C66">
-        <v>0.08356304206698717</v>
+        <v>0.0797837460788839</v>
       </c>
       <c r="D66">
-        <v>0.0397960043849136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07619330410167077</v>
+      </c>
+      <c r="E66">
+        <v>-0.06104170987625863</v>
+      </c>
+      <c r="F66">
+        <v>0.07008743091216096</v>
+      </c>
+      <c r="G66">
+        <v>0.07302226254770018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05210053789861577</v>
+        <v>0.0451616401859619</v>
       </c>
       <c r="C67">
-        <v>0.03185421449260099</v>
+        <v>0.02885852127217519</v>
       </c>
       <c r="D67">
-        <v>-0.02201505835595097</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.004535051774417784</v>
+      </c>
+      <c r="E67">
+        <v>-0.02668393007826933</v>
+      </c>
+      <c r="F67">
+        <v>0.03055228752289425</v>
+      </c>
+      <c r="G67">
+        <v>0.03580635142001298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1240579199343758</v>
+        <v>0.1485215590883093</v>
       </c>
       <c r="C68">
-        <v>-0.2815564980890414</v>
+        <v>-0.2443531543527002</v>
       </c>
       <c r="D68">
-        <v>-0.01003096763925689</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01477647595230365</v>
+      </c>
+      <c r="E68">
+        <v>-0.03911889771179528</v>
+      </c>
+      <c r="F68">
+        <v>0.01112802637776685</v>
+      </c>
+      <c r="G68">
+        <v>0.02628827256082173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09392467100717046</v>
+        <v>0.0886094109615416</v>
       </c>
       <c r="C69">
-        <v>0.0715159217093292</v>
+        <v>0.09055683969510772</v>
       </c>
       <c r="D69">
-        <v>-0.05211768643937487</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01534911368802868</v>
+      </c>
+      <c r="E69">
+        <v>-0.05652208189940369</v>
+      </c>
+      <c r="F69">
+        <v>0.06020596625304277</v>
+      </c>
+      <c r="G69">
+        <v>0.07025619004943474</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1154597331609755</v>
+        <v>0.1428299221850813</v>
       </c>
       <c r="C71">
-        <v>-0.2579980132245631</v>
+        <v>-0.2426118143508012</v>
       </c>
       <c r="D71">
-        <v>0.009387585169717069</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002950671429285266</v>
+      </c>
+      <c r="E71">
+        <v>-0.05387255591357652</v>
+      </c>
+      <c r="F71">
+        <v>0.01528663888691543</v>
+      </c>
+      <c r="G71">
+        <v>0.0618338896985829</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09777988629708777</v>
+        <v>0.1043936005121588</v>
       </c>
       <c r="C72">
-        <v>0.04359341377676045</v>
+        <v>0.04983663119042984</v>
       </c>
       <c r="D72">
-        <v>0.004015279285868522</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03574839356134076</v>
+      </c>
+      <c r="E72">
+        <v>-0.01905613957834542</v>
+      </c>
+      <c r="F72">
+        <v>0.03531213364296948</v>
+      </c>
+      <c r="G72">
+        <v>0.09144316769565686</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3921006925971943</v>
+        <v>0.3298981366462114</v>
       </c>
       <c r="C73">
-        <v>0.04988527229496374</v>
+        <v>0.07086699949501776</v>
       </c>
       <c r="D73">
-        <v>0.4497594787700854</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5092955658519003</v>
+      </c>
+      <c r="E73">
+        <v>0.4570750377089682</v>
+      </c>
+      <c r="F73">
+        <v>-0.240682559741009</v>
+      </c>
+      <c r="G73">
+        <v>0.02840763905059748</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1075255766311475</v>
+        <v>0.1121719210762289</v>
       </c>
       <c r="C74">
-        <v>0.09296723418661518</v>
+        <v>0.09244263225543088</v>
       </c>
       <c r="D74">
-        <v>-0.04680126481858447</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04794691182610073</v>
+      </c>
+      <c r="E74">
+        <v>-0.05819651372126922</v>
+      </c>
+      <c r="F74">
+        <v>-0.004033495231298718</v>
+      </c>
+      <c r="G74">
+        <v>0.04965407510155987</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2557857428667874</v>
+        <v>0.2598845511178817</v>
       </c>
       <c r="C75">
-        <v>0.08600736655175742</v>
+        <v>0.1207285230144326</v>
       </c>
       <c r="D75">
-        <v>-0.1399401491310263</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1533912295225512</v>
+      </c>
+      <c r="E75">
+        <v>-0.03087109440953154</v>
+      </c>
+      <c r="F75">
+        <v>-0.05932796868219347</v>
+      </c>
+      <c r="G75">
+        <v>-0.04673521489485798</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1144713812159129</v>
+        <v>0.1286566445984351</v>
       </c>
       <c r="C76">
-        <v>0.07842350999350989</v>
+        <v>0.09015946020705203</v>
       </c>
       <c r="D76">
-        <v>-0.07371483947015881</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.08129050680751204</v>
+      </c>
+      <c r="E76">
+        <v>-0.07474974902652745</v>
+      </c>
+      <c r="F76">
+        <v>0.01968257687842158</v>
+      </c>
+      <c r="G76">
+        <v>0.03702083528678455</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08457449066684479</v>
+        <v>0.06861371676004563</v>
       </c>
       <c r="C77">
-        <v>0.04368596718906884</v>
+        <v>0.05918119906171047</v>
       </c>
       <c r="D77">
-        <v>0.05434286759672654</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0579448481531553</v>
+      </c>
+      <c r="E77">
+        <v>-0.09450940589532521</v>
+      </c>
+      <c r="F77">
+        <v>0.1759114252254448</v>
+      </c>
+      <c r="G77">
+        <v>-0.1160380312501389</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.05023582973119919</v>
+        <v>0.04811883956744103</v>
       </c>
       <c r="C78">
-        <v>0.03903922037188765</v>
+        <v>0.05193369143490815</v>
       </c>
       <c r="D78">
-        <v>0.02780844393304909</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06359088497406613</v>
+      </c>
+      <c r="E78">
+        <v>-0.05992257522719113</v>
+      </c>
+      <c r="F78">
+        <v>0.06416870444541101</v>
+      </c>
+      <c r="G78">
+        <v>0.06071677291817931</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.0001443213739227895</v>
+        <v>0.03347701505784102</v>
       </c>
       <c r="C79">
-        <v>0.0004895213502525451</v>
+        <v>0.04769996921881851</v>
       </c>
       <c r="D79">
-        <v>0.001670248788447544</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.08341406399928433</v>
+      </c>
+      <c r="E79">
+        <v>-0.06612718960291261</v>
+      </c>
+      <c r="F79">
+        <v>-0.02068023431613633</v>
+      </c>
+      <c r="G79">
+        <v>0.03458330331178208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03981417366775375</v>
+        <v>0.03032225895271556</v>
       </c>
       <c r="C80">
-        <v>0.05030000419506103</v>
+        <v>0.05101702947533546</v>
       </c>
       <c r="D80">
-        <v>0.02840672495261549</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03966352274974502</v>
+      </c>
+      <c r="E80">
+        <v>-0.01474839544999236</v>
+      </c>
+      <c r="F80">
+        <v>0.05622858335858167</v>
+      </c>
+      <c r="G80">
+        <v>-0.003306792163838255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1412378256104565</v>
+        <v>0.1411925080184489</v>
       </c>
       <c r="C81">
-        <v>0.07173727378083135</v>
+        <v>0.09153226231385024</v>
       </c>
       <c r="D81">
-        <v>-0.106545993453199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1245119039933614</v>
+      </c>
+      <c r="E81">
+        <v>-0.07325888198062736</v>
+      </c>
+      <c r="F81">
+        <v>-0.0247431988340386</v>
+      </c>
+      <c r="G81">
+        <v>-0.00956520602787035</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1957914471338506</v>
+        <v>0.2287846921924641</v>
       </c>
       <c r="C82">
-        <v>0.08960372908293006</v>
+        <v>0.1532594271073618</v>
       </c>
       <c r="D82">
-        <v>-0.1991702029709297</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2518731013668056</v>
+      </c>
+      <c r="E82">
+        <v>0.0428418729861383</v>
+      </c>
+      <c r="F82">
+        <v>0.03669131650750036</v>
+      </c>
+      <c r="G82">
+        <v>0.04200285498627297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.0439112009662458</v>
+        <v>0.02926377433613278</v>
       </c>
       <c r="C83">
-        <v>0.03131254608956452</v>
+        <v>0.04513956222829874</v>
       </c>
       <c r="D83">
-        <v>0.03515479729375456</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03116249999383231</v>
+      </c>
+      <c r="E83">
+        <v>-0.02252781581610051</v>
+      </c>
+      <c r="F83">
+        <v>0.02885424867841561</v>
+      </c>
+      <c r="G83">
+        <v>-0.0002646577871826152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0002690821654461011</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0005767100361613189</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0006453729377949018</v>
+      </c>
+      <c r="E84">
+        <v>-0.002915809075370208</v>
+      </c>
+      <c r="F84">
+        <v>-0.00110445046470033</v>
+      </c>
+      <c r="G84">
+        <v>0.001079650813264541</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2179990349008275</v>
+        <v>0.2021464153411721</v>
       </c>
       <c r="C85">
-        <v>0.08991610473495214</v>
+        <v>0.108910533780362</v>
       </c>
       <c r="D85">
-        <v>-0.1640185131879325</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.131121292721851</v>
+      </c>
+      <c r="E85">
+        <v>0.004315445286000776</v>
+      </c>
+      <c r="F85">
+        <v>-0.103264984562728</v>
+      </c>
+      <c r="G85">
+        <v>0.01250765034591363</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01118911673124047</v>
+        <v>0.01388576414507832</v>
       </c>
       <c r="C86">
-        <v>0.03027350363403647</v>
+        <v>0.01933609848315711</v>
       </c>
       <c r="D86">
-        <v>0.04474406323365156</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06517156166670027</v>
+      </c>
+      <c r="E86">
+        <v>-0.07665064278922046</v>
+      </c>
+      <c r="F86">
+        <v>0.08864844450195089</v>
+      </c>
+      <c r="G86">
+        <v>0.0652198703439708</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02959603481171208</v>
+        <v>0.02912278014157525</v>
       </c>
       <c r="C87">
-        <v>0.004727304428886131</v>
+        <v>0.0135254151782222</v>
       </c>
       <c r="D87">
-        <v>0.08663099514304619</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0854570682943287</v>
+      </c>
+      <c r="E87">
+        <v>-0.1247334174937918</v>
+      </c>
+      <c r="F87">
+        <v>0.0780332625666756</v>
+      </c>
+      <c r="G87">
+        <v>-0.00342654093024807</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1102975274945932</v>
+        <v>0.09382840384162726</v>
       </c>
       <c r="C88">
-        <v>0.07814148287452971</v>
+        <v>0.0648558827864324</v>
       </c>
       <c r="D88">
-        <v>-0.02382599843484308</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01104195221980342</v>
+      </c>
+      <c r="E88">
+        <v>-0.05132954932597094</v>
+      </c>
+      <c r="F88">
+        <v>0.05248179446915786</v>
+      </c>
+      <c r="G88">
+        <v>0.03278866733055537</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1771020830444963</v>
+        <v>0.2147400114212059</v>
       </c>
       <c r="C89">
-        <v>-0.3825606392446264</v>
+        <v>-0.3842119344234003</v>
       </c>
       <c r="D89">
-        <v>-0.0259527964334833</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01393585259141993</v>
+      </c>
+      <c r="E89">
+        <v>-0.06985123990245169</v>
+      </c>
+      <c r="F89">
+        <v>0.08840095873536852</v>
+      </c>
+      <c r="G89">
+        <v>-0.005274068251828121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1692940089502114</v>
+        <v>0.1945968180254094</v>
       </c>
       <c r="C90">
-        <v>-0.3352805674856584</v>
+        <v>-0.3123664044157717</v>
       </c>
       <c r="D90">
-        <v>-0.03972068075019224</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02013018528024981</v>
+      </c>
+      <c r="E90">
+        <v>-0.05752928459398458</v>
+      </c>
+      <c r="F90">
+        <v>0.0314031194508104</v>
+      </c>
+      <c r="G90">
+        <v>0.01283652953967228</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1880719465268134</v>
+        <v>0.1862801679506134</v>
       </c>
       <c r="C91">
-        <v>0.1224604813492424</v>
+        <v>0.1395241040050717</v>
       </c>
       <c r="D91">
-        <v>-0.1322625300338244</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1312011935620762</v>
+      </c>
+      <c r="E91">
+        <v>-0.04968749488173031</v>
+      </c>
+      <c r="F91">
+        <v>-0.0143970920608418</v>
+      </c>
+      <c r="G91">
+        <v>-0.001286862502687556</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1602211441987584</v>
+        <v>0.1799855180786577</v>
       </c>
       <c r="C92">
-        <v>-0.2947721246655652</v>
+        <v>-0.2974833394186744</v>
       </c>
       <c r="D92">
-        <v>-0.01914794582921116</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01457675467488038</v>
+      </c>
+      <c r="E92">
+        <v>-0.06087917363327814</v>
+      </c>
+      <c r="F92">
+        <v>0.05793124869871051</v>
+      </c>
+      <c r="G92">
+        <v>0.02684852430538513</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1899269150948351</v>
+        <v>0.2162992536818809</v>
       </c>
       <c r="C93">
-        <v>-0.3403801461098727</v>
+        <v>-0.3210187396393701</v>
       </c>
       <c r="D93">
-        <v>-0.04248283078122612</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01930657036427164</v>
+      </c>
+      <c r="E93">
+        <v>-0.03804575651613263</v>
+      </c>
+      <c r="F93">
+        <v>0.005322347889477281</v>
+      </c>
+      <c r="G93">
+        <v>0.04250965393035962</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3432047749128994</v>
+        <v>0.3445201667892088</v>
       </c>
       <c r="C94">
-        <v>0.1272873043381542</v>
+        <v>0.173586474790538</v>
       </c>
       <c r="D94">
-        <v>-0.3721855367596014</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4015762973642189</v>
+      </c>
+      <c r="E94">
+        <v>-0.0005745820406676385</v>
+      </c>
+      <c r="F94">
+        <v>-0.158694290273333</v>
+      </c>
+      <c r="G94">
+        <v>-0.3879079434741579</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1231860075754718</v>
+        <v>0.09014681158648086</v>
       </c>
       <c r="C95">
-        <v>0.04599977956005683</v>
+        <v>0.05492873836326754</v>
       </c>
       <c r="D95">
-        <v>0.209725409567079</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1962193521856652</v>
+      </c>
+      <c r="E95">
+        <v>0.1246213201421644</v>
+      </c>
+      <c r="F95">
+        <v>0.6670983511067146</v>
+      </c>
+      <c r="G95">
+        <v>-0.6149074597557755</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1932055762849152</v>
+        <v>0.1865751205866893</v>
       </c>
       <c r="C98">
-        <v>0.03399299651938528</v>
+        <v>0.05194062104329013</v>
       </c>
       <c r="D98">
-        <v>0.1632901437257506</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2046565586832891</v>
+      </c>
+      <c r="E98">
+        <v>0.1442825228319136</v>
+      </c>
+      <c r="F98">
+        <v>-0.08095818932481091</v>
+      </c>
+      <c r="G98">
+        <v>0.07995160959502688</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007946243975258243</v>
+        <v>0.006997091856513923</v>
       </c>
       <c r="C101">
-        <v>0.03171740174910196</v>
+        <v>0.02822620323878271</v>
       </c>
       <c r="D101">
-        <v>-0.01285724504141559</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01770892451116954</v>
+      </c>
+      <c r="E101">
+        <v>-0.05235207627369164</v>
+      </c>
+      <c r="F101">
+        <v>0.07681942320681898</v>
+      </c>
+      <c r="G101">
+        <v>0.08261348513872936</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1217137785925504</v>
+        <v>0.1253573693832128</v>
       </c>
       <c r="C102">
-        <v>0.0664123499249008</v>
+        <v>0.09797135102335351</v>
       </c>
       <c r="D102">
-        <v>-0.04998636959691826</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05923512754282977</v>
+      </c>
+      <c r="E102">
+        <v>0.01230786619424014</v>
+      </c>
+      <c r="F102">
+        <v>0.01903657455548805</v>
+      </c>
+      <c r="G102">
+        <v>-0.01132027293246569</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
